--- a/tencent/20230831-腾讯论文分享-信息收集.xlsx
+++ b/tencent/20230831-腾讯论文分享-信息收集.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reports\polysi-vldb2023-report\tencent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33CE17BB-EA5D-42B3-9F5F-13F7DC957DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CB43F7-B58E-41D4-9EDE-896F09B5D281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -197,12 +197,12 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>魏恒峰，2016年于南京大学计算机科学与技术系取得博士学位。现任南京大学软件学院助理研究员。研究方向是分布式计算与分布式系统，主要关注数据一致性问题，包括分布式共识协议、分布式数据库、数据库事务等。</t>
+    <t xml:space="preserve">      在数据库事务中，隔离级别指定了并发事务之间的可见性与相互影响的方式。可串行化（Serializability）是一种强隔离级别，它保证多个事务并发执行的效果等价于某种串行执行。然而，可串行化隔离级别对系统性能影响较大。快照隔离（Snapshot Isolation；SI）是一种已被广泛使用的弱隔离级别，它既避免了可串行化带来的性能损失，又能防止多种不希望出现的数据异常。然而，近期的研究指出，一些声称提供快照隔离级别保证的数据库会产生违反快照隔离的数据异常。考虑到数据库系统的复杂性，我们希望设计高效的黑盒快照隔离检查器。
+       在本工作中，我们设计并实现了快照隔离检查器 PolySI。PolySI 能够高效地检查给定数据库的执行历史是否满足快照隔离，并在检测到数据异常时提供易于理解的反例。我们首先提出了基于“广义多图”结构的快照隔离刻画定理，这也是 PolySI 的理论基础，保证了 PolySI 的正确性与完备性。基于上述刻画定理，PolySI 将快照隔离检测问题转化为“广义多图”结构上的约束求解问题，并将其编码为命题逻辑公式，利用 MonoSAT 求解器进行求解。为了提高性能，PolySI 采用了一种紧凑型的约束编码方案，并利用领域知识在编码前对约束进行剪枝。实验结果表明，PolySI 可以成功复现已知的快照隔离数据异常，也发现了三个数据库中未知的快照隔离异常并给出了易于理解的反例。PolySI 的性能优于目前已知的最好的黑盒快照隔离检查器，并且可以扩展到包含百万级别事务数量的大规模数据库执行历史上。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>在数据库事务中，隔离级别指定了并发事务之间的可见性与相互影响的方式。可串行化（Serializability）是一种强隔离级别，它保证多个事务并发执行的效果等价于某种串行执行的效果。然而，可串行化隔离级别对系统性能影响较大。快照隔离（Snapshot Isolation；SI）是一种已被广泛使用的弱隔离级别，它既避免了可串行化带来的性能损失，又能避免各种不希望出现的数据异常。然而，近期的研究指出，一些声称提供快照隔离级别保证的数据库会产生违反快照隔离的数据异常。考虑到数据库系统的复杂性，我们希望设计高效的黑盒快照隔离检查器。
-在本工作中，我们设计并实现了快照隔离检查器 PolySI。PolySI 能够高效地检查数据库的执行历史是否满足快照隔离，并在检测到数据异常时提供易于理解的反例。我们首先提出了基于“广义多图”结构的快照隔离刻画定理，这也是 PolySI 的理论基础，保证了 PolySI 的正确性（Soundness）与完备性（Completeness）。基于上述刻画定理，PolySI 将快照隔离检测问题转化为“广义多图”结构上的约束求解问题，并将其编码为命题逻辑公式，利用 MonoSAT 求解器进行求解。为了提高性能，PolySI 采用了一种紧凑型的约束编码方案，并利用领域知识在编码前对约束进行剪枝。实验结果表明，PolySI 可以成功复现已知的快照隔离数据异常，也发现了三个数据库中未知的快照隔离异常并给出了易于理解的反例。PolySI 的性能优于目前已知的最好的黑盒快照隔离检查器，并且可以扩展到包含百万级别事务数量的大型数据库执行历史上。</t>
+    <t xml:space="preserve">       魏恒峰，2016 年于南京大学计算机科学与技术系取得博士学位。现任南京大学软件学院助理研究员。研究兴趣是分布式系统与形式化方法，主要关注数据一致性问题，包括分布式共识协议、分布式数据库、数据库事务等。在 PVLDB、USENIX ATC、PODC、OPODIS、SRDS 等国际会议以及 TC、TPDS、软件学报等国内外期刊发表多篇学术论文。曾主持并完成一项国家青年科学基金项目与一项腾讯犀牛鸟基金项目（包括滚动支持项目）。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -210,7 +210,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -246,6 +246,18 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -272,7 +284,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -298,6 +310,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -313,6 +334,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1196340</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1688592</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39448BA7-290E-07F6-687A-4F951F39B94D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18889980" y="678180"/>
+          <a:ext cx="1059180" cy="1482852"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -614,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -769,13 +845,13 @@
         <v>20</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="7" t="s">
-        <v>25</v>
+      <c r="E4" s="11" t="s">
+        <v>26</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H4" s="7" t="s">
@@ -785,7 +861,7 @@
         <v>22</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="2"/>
@@ -6306,5 +6382,6 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>